--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2608.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2608.xlsx
@@ -354,7 +354,7 @@
         <v>1.573135284233683</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.80144570711905</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2608.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2608.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7944866373057449</v>
+        <v>1.347185373306274</v>
       </c>
       <c r="B1">
-        <v>1.573135284233683</v>
+        <v>2.156166553497314</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.883908271789551</v>
       </c>
       <c r="D1">
-        <v>1.80144570711905</v>
+        <v>3.268582820892334</v>
       </c>
       <c r="E1">
-        <v>0.9189081022718485</v>
+        <v>1.286518812179565</v>
       </c>
     </row>
   </sheetData>
